--- a/public/Wirtohneschaft.xlsx
+++ b/public/Wirtohneschaft.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rhoffmann\workspace\project\Travel-Assistant\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B643118-AA6F-44F0-8180-2422E67DA21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3347EE-7D97-48A5-BA90-A659F01312F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-15720" windowWidth="29040" windowHeight="15840" xr2:uid="{FC581396-52E4-4B29-8AE4-9921FB1EACDA}"/>
+    <workbookView xWindow="75" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{FC581396-52E4-4B29-8AE4-9921FB1EACDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -283,10 +283,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$Q$17:$Q$49</c:f>
+              <c:f>Tabelle1!$Q$17:$Q$40</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€"</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>589.33333333333337</c:v>
                 </c:pt>
@@ -358,33 +358,6 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>14144</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>14733.333333333334</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>15322.666666666668</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>15912.000000000002</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>16501.333333333336</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>17090.666666666668</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>17680</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>18269.333333333336</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>18858.666666666668</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>19448</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -416,10 +389,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$R$17:$R$49</c:f>
+              <c:f>Tabelle1!$R$17:$R$40</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€"</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>2529.5</c:v>
                 </c:pt>
@@ -491,33 +464,6 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>11993.999999999998</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>12405.499999999998</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>12816.999999999998</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>13228.499999999998</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>13639.999999999998</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>14051.499999999998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>14462.999999999998</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>14874.499999999998</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>15285.999999999998</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>15697.499999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -836,7 +782,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1757,16 +1703,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C6420C-73C6-41DB-8BAA-F49BA190D05B}">
   <dimension ref="B1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16">
@@ -2616,7 +2562,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>